--- a/intermediateTables/fish_tiers.xlsx
+++ b/intermediateTables/fish_tiers.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DocsHDD\FGame\中鱼\StatDemo\intermediateTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47ED496E-6296-4688-BB81-4E57161C41AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{211BCF6B-2060-4B84-AF34-68AFA6D84488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="1980" windowWidth="41685" windowHeight="18390" activeTab="1" xr2:uid="{119240FA-2177-453D-8934-A65CBA312D16}"/>
+    <workbookView xWindow="9735" yWindow="1980" windowWidth="41685" windowHeight="18390" xr2:uid="{119240FA-2177-453D-8934-A65CBA312D16}"/>
   </bookViews>
   <sheets>
     <sheet name="fish_tiers" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>中文名</t>
   </si>
@@ -47,33 +47,12 @@
     <t>尖吻鲟</t>
   </si>
   <si>
-    <t>Atlantic Sturgeon</t>
-  </si>
-  <si>
     <t>鸭嘴鲟</t>
   </si>
   <si>
-    <t>American Paddlefish</t>
-  </si>
-  <si>
     <t>鳄雀鳝</t>
   </si>
   <si>
-    <t>Alligator Gar</t>
-  </si>
-  <si>
-    <t>美洲红鱼</t>
-  </si>
-  <si>
-    <t>Red Drum</t>
-  </si>
-  <si>
-    <t>蓝鲶鱼</t>
-  </si>
-  <si>
-    <t>Blue Catfish</t>
-  </si>
-  <si>
     <t>fish_alligator_gar</t>
   </si>
   <si>
@@ -435,192 +414,6 @@
   </si>
   <si>
     <t>黄鲈</t>
-  </si>
-  <si>
-    <t>Striped Bass</t>
-  </si>
-  <si>
-    <t>Muskellunge</t>
-  </si>
-  <si>
-    <t>硬头鳟</t>
-  </si>
-  <si>
-    <t>Steelhead Trout</t>
-  </si>
-  <si>
-    <t>Northern Pike</t>
-  </si>
-  <si>
-    <t>Shortnose Sturgeon</t>
-  </si>
-  <si>
-    <t>斑点雀鳝</t>
-  </si>
-  <si>
-    <t>Spotted Gar</t>
-  </si>
-  <si>
-    <t>Brown Trout</t>
-  </si>
-  <si>
-    <t>佛罗里达雀鳝</t>
-  </si>
-  <si>
-    <t>Florida Gar</t>
-  </si>
-  <si>
-    <t>Largemouth Bass</t>
-  </si>
-  <si>
-    <t>Chain Pickerel</t>
-  </si>
-  <si>
-    <t>Rainbow Trout</t>
-  </si>
-  <si>
-    <t>黑莓鲈</t>
-  </si>
-  <si>
-    <t>Black Crappie</t>
-  </si>
-  <si>
-    <t>黑牛胭脂鱼</t>
-  </si>
-  <si>
-    <t>Black Buffalo</t>
-  </si>
-  <si>
-    <t>Walleye</t>
-  </si>
-  <si>
-    <t>American Eel</t>
-  </si>
-  <si>
-    <t>Smallmouth Bass</t>
-  </si>
-  <si>
-    <t>Petromyzontidae (Lamprey)</t>
-  </si>
-  <si>
-    <t>Buffalo fish</t>
-  </si>
-  <si>
-    <t>Golden Trout</t>
-  </si>
-  <si>
-    <t>加拿大梭鲈</t>
-  </si>
-  <si>
-    <t>Sauger</t>
-  </si>
-  <si>
-    <t>Tench</t>
-  </si>
-  <si>
-    <t>Spotted Bass</t>
-  </si>
-  <si>
-    <t>Rock Bass</t>
-  </si>
-  <si>
-    <t>Flathead Catfish</t>
-  </si>
-  <si>
-    <t>Channel Catfish</t>
-  </si>
-  <si>
-    <t>Cutthroat Trout</t>
-  </si>
-  <si>
-    <t>Yellow Perch</t>
-  </si>
-  <si>
-    <t>Freshwater Drum</t>
-  </si>
-  <si>
-    <t>Redfin Pickerel</t>
-  </si>
-  <si>
-    <t>Bigmouth Buffalo</t>
-  </si>
-  <si>
-    <t>Bluegill</t>
-  </si>
-  <si>
-    <t>瓜仁太阳鱼</t>
-  </si>
-  <si>
-    <t>Pumpkinseed Sunfish</t>
-  </si>
-  <si>
-    <t>Butterfly Peacock Bass</t>
-  </si>
-  <si>
-    <t>Chiselmouth</t>
-  </si>
-  <si>
-    <t>褐牛鲶</t>
-  </si>
-  <si>
-    <t>Brown Bullhead</t>
-  </si>
-  <si>
-    <t>American Shad</t>
-  </si>
-  <si>
-    <t>Redear Sunfish</t>
-  </si>
-  <si>
-    <t>Redspotted Sunfish</t>
-  </si>
-  <si>
-    <t>Alewife</t>
-  </si>
-  <si>
-    <t>露仙美鱥</t>
-  </si>
-  <si>
-    <t>Tennessee Shiner</t>
-  </si>
-  <si>
-    <t>River Chub</t>
-  </si>
-  <si>
-    <t>黑鮰</t>
-  </si>
-  <si>
-    <t>Black Bullhead</t>
-  </si>
-  <si>
-    <t>Green Sunfish</t>
-  </si>
-  <si>
-    <t>Hardhead</t>
-  </si>
-  <si>
-    <t>Common Shiner</t>
-  </si>
-  <si>
-    <t>Hornyhead Chub</t>
-  </si>
-  <si>
-    <t>金体美鳊</t>
-  </si>
-  <si>
-    <t>Golden Shiner</t>
-  </si>
-  <si>
-    <t>Bowfin</t>
-  </si>
-  <si>
-    <t>长背亚口鱼</t>
-  </si>
-  <si>
-    <t>Blue Sucker</t>
-  </si>
-  <si>
-    <t>Blacktail Shiner</t>
   </si>
 </sst>
 </file>
@@ -1655,10 +1448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC72D005-B656-409F-8B84-B771A31334C4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1692,17 +1486,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="5">
-        <v>50</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10.6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5">
         <v>503</v>
       </c>
@@ -1715,10 +1505,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1728,10 +1518,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1741,10 +1531,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1754,10 +1544,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1770,7 +1560,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1780,10 +1570,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1793,10 +1583,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1806,10 +1596,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1819,10 +1609,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1832,10 +1622,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1845,10 +1635,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1858,10 +1648,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1871,10 +1661,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1884,10 +1674,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1897,10 +1687,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1910,10 +1700,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1923,10 +1713,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1936,10 +1726,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1949,10 +1739,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1962,10 +1752,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1975,10 +1765,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1988,10 +1778,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2001,10 +1791,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2014,10 +1804,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2027,10 +1817,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2040,10 +1830,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2053,10 +1843,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2066,10 +1856,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2079,10 +1869,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -2092,10 +1882,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2105,10 +1895,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2118,10 +1908,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2131,10 +1921,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2144,10 +1934,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2157,10 +1947,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2170,10 +1960,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2183,10 +1973,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2196,10 +1986,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2209,10 +1999,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2222,10 +2012,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2235,10 +2025,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2248,10 +2038,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2261,10 +2051,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2274,10 +2064,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2287,10 +2077,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2300,10 +2090,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2313,10 +2103,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2326,10 +2116,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2339,10 +2129,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2352,10 +2142,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2365,10 +2155,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2378,10 +2168,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2391,10 +2181,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2404,10 +2194,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2417,10 +2207,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2430,10 +2220,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2443,10 +2233,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2456,10 +2246,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2469,10 +2259,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2482,10 +2272,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2495,10 +2285,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2514,1283 +2304,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A723A4-8AD2-42D3-9DB8-9B914151E838}">
-  <dimension ref="A1:G55"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1">
-        <v>150</v>
-      </c>
-      <c r="F1">
-        <v>300</v>
-      </c>
-      <c r="G1">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>60</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>10.06</v>
-      </c>
-      <c r="G3">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>2.46</v>
-      </c>
-      <c r="G5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>17.95</v>
-      </c>
-      <c r="G7">
-        <v>89.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>17.95</v>
-      </c>
-      <c r="G9">
-        <v>71.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F12">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>7.25</v>
-      </c>
-      <c r="G13">
-        <v>36.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>17.95</v>
-      </c>
-      <c r="G14">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>17.95</v>
-      </c>
-      <c r="G15">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17">
-        <v>1.5</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F18">
-        <v>5.99</v>
-      </c>
-      <c r="G18">
-        <v>24.56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-      <c r="F20">
-        <v>1.5</v>
-      </c>
-      <c r="G20">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23">
-        <v>3.5</v>
-      </c>
-      <c r="F23">
-        <v>5.7</v>
-      </c>
-      <c r="G23">
-        <v>19.95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>6.54</v>
-      </c>
-      <c r="G24">
-        <v>19.62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>5</v>
-      </c>
-      <c r="G28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>7.25</v>
-      </c>
-      <c r="G29">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>7.25</v>
-      </c>
-      <c r="G30">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>6.54</v>
-      </c>
-      <c r="G31">
-        <v>13.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-      <c r="F32">
-        <v>22.99</v>
-      </c>
-      <c r="G32">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>3.09</v>
-      </c>
-      <c r="G33">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35">
-        <v>8</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36">
-        <v>0.5</v>
-      </c>
-      <c r="F36">
-        <v>13.99</v>
-      </c>
-      <c r="G36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37">
-        <v>0.5</v>
-      </c>
-      <c r="F37">
-        <v>14</v>
-      </c>
-      <c r="G37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" t="s">
-        <v>180</v>
-      </c>
-      <c r="E40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F40">
-        <v>5</v>
-      </c>
-      <c r="G40">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41">
-        <v>5.5</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42">
-        <v>0.5</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43">
-        <v>0.5</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44">
-        <v>0.44</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>3</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45">
-        <v>0.5</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46">
-        <v>0.5</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>3</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47">
-        <v>0.5</v>
-      </c>
-      <c r="F47">
-        <v>2.5</v>
-      </c>
-      <c r="G47">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48">
-        <v>0.5</v>
-      </c>
-      <c r="F48">
-        <v>0.2</v>
-      </c>
-      <c r="G48">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49">
-        <v>0.5</v>
-      </c>
-      <c r="F49">
-        <v>0.2</v>
-      </c>
-      <c r="G49">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>2</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50">
-        <v>0.2</v>
-      </c>
-      <c r="F50">
-        <v>0.2</v>
-      </c>
-      <c r="G50">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51">
-        <v>0.2</v>
-      </c>
-      <c r="F51">
-        <v>0.2</v>
-      </c>
-      <c r="G51">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52">
-        <v>0.2</v>
-      </c>
-      <c r="F52">
-        <v>0.2</v>
-      </c>
-      <c r="G52">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" t="s">
-        <v>198</v>
-      </c>
-      <c r="E54">
-        <v>5.5</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>2</v>
-      </c>
-      <c r="B55">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55">
-        <v>0.02</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/intermediateTables/fish_tiers.xlsx
+++ b/intermediateTables/fish_tiers.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DocsHDD\FGame\中鱼\StatDemo\intermediateTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{211BCF6B-2060-4B84-AF34-68AFA6D84488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CDE3BC-1380-45AC-A660-FB6846617BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9735" yWindow="1980" windowWidth="41685" windowHeight="18390" xr2:uid="{119240FA-2177-453D-8934-A65CBA312D16}"/>
+    <workbookView xWindow="4740" yWindow="795" windowWidth="41685" windowHeight="20190" xr2:uid="{119240FA-2177-453D-8934-A65CBA312D16}"/>
   </bookViews>
   <sheets>
-    <sheet name="fish_tiers" sheetId="1" r:id="rId1"/>
-    <sheet name="history" sheetId="2" r:id="rId2"/>
+    <sheet name="基础分阶表" sheetId="3" r:id="rId1"/>
+    <sheet name="fish_tiers" sheetId="1" r:id="rId2"/>
+    <sheet name="history" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="197">
   <si>
     <t>中文名</t>
   </si>
@@ -414,6 +415,204 @@
   </si>
   <si>
     <t>黄鲈</t>
+  </si>
+  <si>
+    <t>鱼种</t>
+  </si>
+  <si>
+    <t>平均重量(磅)</t>
+  </si>
+  <si>
+    <t>单价(美元/磅)</t>
+  </si>
+  <si>
+    <t>单条价格(美元)</t>
+  </si>
+  <si>
+    <t>Marlin (Blue)</t>
+  </si>
+  <si>
+    <t>Swordfish</t>
+  </si>
+  <si>
+    <t>Bluefin Tuna</t>
+  </si>
+  <si>
+    <t>Yellowfin Tuna</t>
+  </si>
+  <si>
+    <t>Grouper (Gag)</t>
+  </si>
+  <si>
+    <t>Sailfish</t>
+  </si>
+  <si>
+    <t>Pacific Halibut</t>
+  </si>
+  <si>
+    <t>Salmon (King)</t>
+  </si>
+  <si>
+    <t>Albino Alligator Gar</t>
+  </si>
+  <si>
+    <t>Chinook Salmon</t>
+  </si>
+  <si>
+    <t>Striped Bass</t>
+  </si>
+  <si>
+    <t>Tiger Muskie</t>
+  </si>
+  <si>
+    <t>Cobia</t>
+  </si>
+  <si>
+    <t>Red Snapper</t>
+  </si>
+  <si>
+    <t>Muskellunge</t>
+  </si>
+  <si>
+    <t>Albino Shovelnose Sturgeon</t>
+  </si>
+  <si>
+    <t>Salmon (Sockeye)</t>
+  </si>
+  <si>
+    <t>Salmon (Coho)</t>
+  </si>
+  <si>
+    <t>Mahi Mahi</t>
+  </si>
+  <si>
+    <t>Alligator Gar</t>
+  </si>
+  <si>
+    <t>Blue Catfish</t>
+  </si>
+  <si>
+    <t>Atlantic Salmon</t>
+  </si>
+  <si>
+    <t>Barracuda</t>
+  </si>
+  <si>
+    <t>Black Drum</t>
+  </si>
+  <si>
+    <t>Summer Flounder (Fluke)</t>
+  </si>
+  <si>
+    <t>Mangrove Snapper</t>
+  </si>
+  <si>
+    <t>Lesser Amberjack</t>
+  </si>
+  <si>
+    <t>Tarpon (Atlantic)</t>
+  </si>
+  <si>
+    <t>Paddlefish</t>
+  </si>
+  <si>
+    <t>Brown Trout</t>
+  </si>
+  <si>
+    <t>Flathead Catfish</t>
+  </si>
+  <si>
+    <t>Shovelnose Sturgeon</t>
+  </si>
+  <si>
+    <t>Peacock Bass</t>
+  </si>
+  <si>
+    <t>Largemouth Bass</t>
+  </si>
+  <si>
+    <t>Northern Pike</t>
+  </si>
+  <si>
+    <t>Northern Snakehead</t>
+  </si>
+  <si>
+    <t>Smallmouth Bass</t>
+  </si>
+  <si>
+    <t>Rainbow Trout</t>
+  </si>
+  <si>
+    <t>Arctic Char</t>
+  </si>
+  <si>
+    <t>Salmon (Pink)</t>
+  </si>
+  <si>
+    <t>Walleye</t>
+  </si>
+  <si>
+    <t>Pink Salmon</t>
+  </si>
+  <si>
+    <t>Bighead Carp</t>
+  </si>
+  <si>
+    <t>Lake Whitefish</t>
+  </si>
+  <si>
+    <t>Brook Trout</t>
+  </si>
+  <si>
+    <t>Freshwater Drum</t>
+  </si>
+  <si>
+    <t>Common Carp</t>
+  </si>
+  <si>
+    <t>Grass Carp</t>
+  </si>
+  <si>
+    <t>Sheepshead</t>
+  </si>
+  <si>
+    <t>American Eel</t>
+  </si>
+  <si>
+    <t>Bowfin</t>
+  </si>
+  <si>
+    <t>Silver Carp</t>
+  </si>
+  <si>
+    <t>Koi (Nishikigoi)</t>
+  </si>
+  <si>
+    <t>Koi (Kohaku)</t>
+  </si>
+  <si>
+    <t>White Bass</t>
+  </si>
+  <si>
+    <t>Channel Catfish</t>
+  </si>
+  <si>
+    <t>Crappie (White)</t>
+  </si>
+  <si>
+    <t>Crappie (Black)</t>
+  </si>
+  <si>
+    <t>Yellow Perch</t>
+  </si>
+  <si>
+    <t>Bluegill</t>
+  </si>
+  <si>
+    <t>Redear Sunfish</t>
+  </si>
+  <si>
+    <t>White Perch</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,6 +1271,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1447,12 +1652,1292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE686DB-A75F-4231-90D6-D03A9CACCB0F}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="8">
+        <v>180</v>
+      </c>
+      <c r="C2" s="8">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3600</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="8">
+        <v>150</v>
+      </c>
+      <c r="C3" s="8">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="8">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1600</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="8">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="8">
+        <v>100</v>
+      </c>
+      <c r="C6" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="8">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="8">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>600</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="8">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <v>400</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="8">
+        <v>80</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>400</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="8">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8">
+        <v>270</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="8">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8">
+        <v>240</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="8">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8">
+        <v>240</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="8">
+        <v>60</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>240</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="8">
+        <v>15</v>
+      </c>
+      <c r="C15" s="8">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8">
+        <v>225</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="8">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8">
+        <v>200</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="8">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8">
+        <v>200</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="8">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8">
+        <v>180</v>
+      </c>
+      <c r="E18" s="8">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8">
+        <v>180</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="8">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8">
+        <v>7</v>
+      </c>
+      <c r="D20" s="8">
+        <v>175</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="8">
+        <v>80</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>160</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="8">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>150</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3</v>
+      </c>
+      <c r="F22" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="8">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8">
+        <v>150</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="8">
+        <v>30</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8">
+        <v>150</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="8">
+        <v>50</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8">
+        <v>150</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="8">
+        <v>15</v>
+      </c>
+      <c r="C26" s="8">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8">
+        <v>120</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10</v>
+      </c>
+      <c r="C27" s="8">
+        <v>12</v>
+      </c>
+      <c r="D27" s="8">
+        <v>120</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="8">
+        <v>20</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+      <c r="D28" s="8">
+        <v>100</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4</v>
+      </c>
+      <c r="F28" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="8">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>100</v>
+      </c>
+      <c r="E29" s="8">
+        <v>4</v>
+      </c>
+      <c r="F29" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="8">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>90</v>
+      </c>
+      <c r="E30" s="8">
+        <v>5</v>
+      </c>
+      <c r="F30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="8">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8">
+        <v>12</v>
+      </c>
+      <c r="D31" s="8">
+        <v>84</v>
+      </c>
+      <c r="E31" s="8">
+        <v>5</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="8">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
+        <v>75</v>
+      </c>
+      <c r="E32" s="8">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="8">
+        <v>25</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3</v>
+      </c>
+      <c r="D33" s="8">
+        <v>75</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="8">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8">
+        <v>75</v>
+      </c>
+      <c r="E34" s="8">
+        <v>5</v>
+      </c>
+      <c r="F34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="8">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8">
+        <v>10</v>
+      </c>
+      <c r="D35" s="8">
+        <v>70</v>
+      </c>
+      <c r="E35" s="8">
+        <v>5</v>
+      </c>
+      <c r="F35" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="8">
+        <v>15</v>
+      </c>
+      <c r="C36" s="8">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8">
+        <v>60</v>
+      </c>
+      <c r="E36" s="8">
+        <v>5</v>
+      </c>
+      <c r="F36" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="8">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8">
+        <v>10</v>
+      </c>
+      <c r="D37" s="8">
+        <v>60</v>
+      </c>
+      <c r="E37" s="8">
+        <v>6</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="8">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8">
+        <v>10</v>
+      </c>
+      <c r="D38" s="8">
+        <v>50</v>
+      </c>
+      <c r="E38" s="8">
+        <v>6</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8">
+        <v>10</v>
+      </c>
+      <c r="D39" s="8">
+        <v>50</v>
+      </c>
+      <c r="E39" s="8">
+        <v>6</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="8">
+        <v>4</v>
+      </c>
+      <c r="C40" s="8">
+        <v>12</v>
+      </c>
+      <c r="D40" s="8">
+        <v>48</v>
+      </c>
+      <c r="E40" s="8">
+        <v>6</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="8">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8">
+        <v>8</v>
+      </c>
+      <c r="D41" s="8">
+        <v>40</v>
+      </c>
+      <c r="E41" s="8">
+        <v>6</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="8">
+        <v>5</v>
+      </c>
+      <c r="C42" s="8">
+        <v>8</v>
+      </c>
+      <c r="D42" s="8">
+        <v>40</v>
+      </c>
+      <c r="E42" s="8">
+        <v>6</v>
+      </c>
+      <c r="F42" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="8">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8">
+        <v>8</v>
+      </c>
+      <c r="D43" s="8">
+        <v>40</v>
+      </c>
+      <c r="E43" s="8">
+        <v>6</v>
+      </c>
+      <c r="F43" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="8">
+        <v>20</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>40</v>
+      </c>
+      <c r="E44" s="8">
+        <v>7</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="8">
+        <v>5</v>
+      </c>
+      <c r="C45" s="8">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8">
+        <v>40</v>
+      </c>
+      <c r="E45" s="8">
+        <v>7</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="8">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8">
+        <v>10</v>
+      </c>
+      <c r="D46" s="8">
+        <v>30</v>
+      </c>
+      <c r="E46" s="8">
+        <v>7</v>
+      </c>
+      <c r="F46" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="8">
+        <v>15</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" s="8">
+        <v>30</v>
+      </c>
+      <c r="E47" s="8">
+        <v>7</v>
+      </c>
+      <c r="F47" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="8">
+        <v>15</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2</v>
+      </c>
+      <c r="D48" s="8">
+        <v>30</v>
+      </c>
+      <c r="E48" s="8">
+        <v>7</v>
+      </c>
+      <c r="F48" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="8">
+        <v>15</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8">
+        <v>30</v>
+      </c>
+      <c r="E49" s="8">
+        <v>7</v>
+      </c>
+      <c r="F49" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="8">
+        <v>10</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8">
+        <v>30</v>
+      </c>
+      <c r="E50" s="8">
+        <v>7</v>
+      </c>
+      <c r="F50" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="8">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8">
+        <v>10</v>
+      </c>
+      <c r="D51" s="8">
+        <v>30</v>
+      </c>
+      <c r="E51" s="8">
+        <v>8</v>
+      </c>
+      <c r="F51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="8">
+        <v>10</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" s="8">
+        <v>20</v>
+      </c>
+      <c r="E52" s="8">
+        <v>8</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="8">
+        <v>10</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2</v>
+      </c>
+      <c r="D53" s="8">
+        <v>20</v>
+      </c>
+      <c r="E53" s="8">
+        <v>8</v>
+      </c>
+      <c r="F53" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="8">
+        <v>10</v>
+      </c>
+      <c r="C54" s="8">
+        <v>2</v>
+      </c>
+      <c r="D54" s="8">
+        <v>20</v>
+      </c>
+      <c r="E54" s="8">
+        <v>8</v>
+      </c>
+      <c r="F54" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="8">
+        <v>10</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>20</v>
+      </c>
+      <c r="E55" s="8">
+        <v>8</v>
+      </c>
+      <c r="F55" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="8">
+        <v>5</v>
+      </c>
+      <c r="C56" s="8">
+        <v>3</v>
+      </c>
+      <c r="D56" s="8">
+        <v>15</v>
+      </c>
+      <c r="E56" s="8">
+        <v>8</v>
+      </c>
+      <c r="F56" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="8">
+        <v>5</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D57" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="E57" s="8">
+        <v>8</v>
+      </c>
+      <c r="F57" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C58" s="8">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="E58" s="8">
+        <v>9</v>
+      </c>
+      <c r="F58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8">
+        <v>9</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C60" s="8">
+        <v>4</v>
+      </c>
+      <c r="D60" s="8">
+        <v>2</v>
+      </c>
+      <c r="E60" s="8">
+        <v>9</v>
+      </c>
+      <c r="F60" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C61" s="8">
+        <v>2</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E61" s="8">
+        <v>9</v>
+      </c>
+      <c r="F61" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C62" s="8">
+        <v>3</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E62" s="8">
+        <v>9</v>
+      </c>
+      <c r="F62" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C63" s="8">
+        <v>3</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E63" s="8">
+        <v>9</v>
+      </c>
+      <c r="F63" s="8">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC72D005-B656-409F-8B84-B771A31334C4}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1493,15 +2978,9 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <v>503</v>
-      </c>
-      <c r="F2" s="5">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5">
-        <v>9.1</v>
-      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2302,7 +3781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A723A4-8AD2-42D3-9DB8-9B914151E838}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
